--- a/PythonResources/Data/Consumption/Sympheny/futu_1045_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1045_hea.xlsx
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>58.68395863947046</v>
+        <v>58.68395863947045</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>39.62525592428452</v>
+        <v>39.62525592428451</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>32.03823287541961</v>
+        <v>32.0382328754196</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>32.03823287541961</v>
+        <v>32.0382328754196</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>18.35404270982861</v>
+        <v>18.3540427098286</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>18.62123557577616</v>
+        <v>18.62123557577615</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>23.17658526520878</v>
+        <v>23.17658526520877</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>25.09910197172334</v>
+        <v>25.09910197172333</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>27.8753346138584</v>
+        <v>27.87533461385839</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>30.31526823912956</v>
+        <v>30.31526823912955</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>30.55998255641179</v>
+        <v>30.55998255641178</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>31.19682592342289</v>
+        <v>31.19682592342288</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>24.18193615623266</v>
+        <v>24.18193615623265</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>27.34074373223624</v>
+        <v>27.34074373223623</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>27.43247496733724</v>
+        <v>27.43247496733723</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>55.10468204429945</v>
+        <v>55.10468204429944</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>30.97497114715625</v>
+        <v>30.97497114715624</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>11.15911940358872</v>
+        <v>11.15911940358871</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>44.01956307797273</v>
+        <v>44.01956307797272</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>32.6850406577452</v>
+        <v>32.68504065774519</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>56.10610578340527</v>
+        <v>56.10610578340526</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>42.5193324310653</v>
+        <v>42.51933243106529</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>19.1567935918259</v>
+        <v>19.15679359182589</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>6.983296709222536</v>
+        <v>6.983296709222535</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>8.33570232422918</v>
+        <v>8.335702324229178</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>8.492319487289803</v>
+        <v>8.492319487289802</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>6.074981639099429</v>
+        <v>6.074981639099428</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2967,7 +2967,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>7.80369046774724</v>
+        <v>7.803690467747239</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3455,7 +3455,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>22.86065468553185</v>
+        <v>22.86065468553184</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3471,7 +3471,7 @@
         <v>391</v>
       </c>
       <c r="B391">
-        <v>51.08697117529107</v>
+        <v>51.08697117529106</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3479,7 +3479,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>38.04560302589987</v>
+        <v>38.04560302589986</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>53.9071937803292</v>
+        <v>53.90719378032919</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>40.39954960842779</v>
+        <v>40.39954960842778</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>28.07154567424217</v>
+        <v>28.07154567424216</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>24.86930497030898</v>
+        <v>24.86930497030897</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>29.58405599766951</v>
+        <v>29.5840559976695</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>21.40453122994296</v>
+        <v>21.40453122994295</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>25.06536949517342</v>
+        <v>25.06536949517341</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>511</v>
       </c>
       <c r="B511">
-        <v>53.58364335364707</v>
+        <v>53.58364335364706</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>22.34830789574409</v>
+        <v>22.34830789574408</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>50.18489851829145</v>
+        <v>50.18489851829144</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4655,7 +4655,7 @@
         <v>539</v>
       </c>
       <c r="B539">
-        <v>24.35001239690494</v>
+        <v>24.35001239690493</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>16.00012543440455</v>
+        <v>16.00012543440454</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>31.56990535563878</v>
+        <v>31.56990535563877</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>6.299180983675358</v>
+        <v>6.299180983675357</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5279,7 +5279,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>5.53227268970635</v>
+        <v>5.532272689706349</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5687,7 +5687,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>21.63629180731635</v>
+        <v>21.63629180731634</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5959,7 +5959,7 @@
         <v>702</v>
       </c>
       <c r="B702">
-        <v>19.23466256679822</v>
+        <v>19.23466256679821</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>23.14768846079677</v>
+        <v>23.14768846079676</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>0.8425118298124756</v>
+        <v>0.8425118298124755</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>2.891910711805078</v>
+        <v>2.891910711805077</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6407,7 +6407,7 @@
         <v>758</v>
       </c>
       <c r="B758">
-        <v>7.952980854841329</v>
+        <v>7.952980854841328</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>6.949505618464883</v>
+        <v>6.949505618464882</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>6.383878513848487</v>
+        <v>6.383878513848486</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>22.73829752689074</v>
+        <v>22.73829752689073</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>18.77158101860943</v>
+        <v>18.77158101860942</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>21.65153150132674</v>
+        <v>21.65153150132673</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -7079,7 +7079,7 @@
         <v>842</v>
       </c>
       <c r="B842">
-        <v>20.22298603047588</v>
+        <v>20.22298603047587</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7119,7 +7119,7 @@
         <v>847</v>
       </c>
       <c r="B847">
-        <v>49.30334083399812</v>
+        <v>49.30334083399811</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>19.89278289121614</v>
+        <v>19.89278289121613</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7239,7 +7239,7 @@
         <v>862</v>
       </c>
       <c r="B862">
-        <v>4.99859032830404</v>
+        <v>4.998590328304039</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7383,7 +7383,7 @@
         <v>880</v>
       </c>
       <c r="B880">
-        <v>2.481470583580637</v>
+        <v>2.481470583580636</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>9.73438385624045</v>
+        <v>9.734383856240449</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>16.66642244080112</v>
+        <v>16.66642244080111</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>937</v>
       </c>
       <c r="B937">
-        <v>17.92355066113896</v>
+        <v>17.92355066113895</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>29.73557372465742</v>
+        <v>29.73557372465741</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>23.79930260815641</v>
+        <v>23.7993026081564</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>58.35806364447905</v>
+        <v>58.35806364447904</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8559,7 +8559,7 @@
         <v>1027</v>
       </c>
       <c r="B1027">
-        <v>3.835567218480357</v>
+        <v>3.835567218480356</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>4.901818271338064</v>
+        <v>4.901818271338063</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8983,7 +8983,7 @@
         <v>1080</v>
       </c>
       <c r="B1080">
-        <v>7.393156556790427</v>
+        <v>7.393156556790426</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -9119,7 +9119,7 @@
         <v>1097</v>
       </c>
       <c r="B1097">
-        <v>5.96897784441562</v>
+        <v>5.968977844415619</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>1103</v>
       </c>
       <c r="B1103">
-        <v>6.652976341547334</v>
+        <v>6.652976341547333</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>18.54647315381365</v>
+        <v>18.54647315381364</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9623,7 +9623,7 @@
         <v>1160</v>
       </c>
       <c r="B1160">
-        <v>16.0379902125996</v>
+        <v>16.03799021259959</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>8.026688221064658</v>
+        <v>8.026688221064656</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9687,7 +9687,7 @@
         <v>1168</v>
       </c>
       <c r="B1168">
-        <v>0.9789862203859044</v>
+        <v>0.9789862203859042</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -9711,7 +9711,7 @@
         <v>1171</v>
       </c>
       <c r="B1171">
-        <v>8.010041786068694</v>
+        <v>8.010041786068692</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -10015,7 +10015,7 @@
         <v>1209</v>
       </c>
       <c r="B1209">
-        <v>29.89881429319179</v>
+        <v>29.89881429319178</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>26.66413062527879</v>
+        <v>26.66413062527878</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>19.6400384274746</v>
+        <v>19.64003842747459</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10047,7 +10047,7 @@
         <v>1213</v>
       </c>
       <c r="B1213">
-        <v>15.45266873418516</v>
+        <v>15.45266873418515</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>8.140048098818866</v>
+        <v>8.140048098818864</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>18.05446549410898</v>
+        <v>18.05446549410897</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10455,7 +10455,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>12.30145169808291</v>
+        <v>12.3014516980829</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10567,7 +10567,7 @@
         <v>1278</v>
       </c>
       <c r="B1278">
-        <v>19.34793452324083</v>
+        <v>19.34793452324082</v>
       </c>
     </row>
     <row r="1279" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>33.45698977357918</v>
+        <v>33.45698977357917</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10815,7 +10815,7 @@
         <v>1309</v>
       </c>
       <c r="B1309">
-        <v>6.622731410357483</v>
+        <v>6.622731410357482</v>
       </c>
     </row>
     <row r="1310" spans="1:2">
@@ -10839,7 +10839,7 @@
         <v>1312</v>
       </c>
       <c r="B1312">
-        <v>2.830726271063749</v>
+        <v>2.830726271063748</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>6.20211585567072</v>
+        <v>6.202115855670719</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11039,7 +11039,7 @@
         <v>1337</v>
       </c>
       <c r="B1337">
-        <v>5.274663246723027</v>
+        <v>5.274663246723026</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>2.036849580117124</v>
+        <v>2.036849580117123</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>8.324272553721388</v>
+        <v>8.324272553721386</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>42.15211441962264</v>
+        <v>42.15211441962263</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11583,7 +11583,7 @@
         <v>1405</v>
       </c>
       <c r="B1405">
-        <v>6.596179174254765</v>
+        <v>6.596179174254764</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>2.146683813276236</v>
+        <v>2.146683813276235</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>55.70078853693663</v>
+        <v>55.70078853693662</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11935,7 +11935,7 @@
         <v>1449</v>
       </c>
       <c r="B1449">
-        <v>31.56756078732949</v>
+        <v>31.56756078732948</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>13.68225589673584</v>
+        <v>13.68225589673583</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12103,7 +12103,7 @@
         <v>1470</v>
       </c>
       <c r="B1470">
-        <v>26.31279706413157</v>
+        <v>26.31279706413156</v>
       </c>
     </row>
     <row r="1471" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>19.04929513484492</v>
+        <v>19.04929513484491</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>6.60599705404992</v>
+        <v>6.605997054049919</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>7.227571419946767</v>
+        <v>7.227571419946766</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>31.17132874305935</v>
+        <v>31.17132874305934</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>11.23432143210922</v>
+        <v>11.23432143210921</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -12999,7 +12999,7 @@
         <v>1582</v>
       </c>
       <c r="B1582">
-        <v>8.762296528104635</v>
+        <v>8.762296528104633</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -13487,7 +13487,7 @@
         <v>1643</v>
       </c>
       <c r="B1643">
-        <v>12.18689022907019</v>
+        <v>12.18689022907018</v>
       </c>
     </row>
     <row r="1644" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>9.549573259260606</v>
+        <v>9.549573259260605</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13735,7 +13735,7 @@
         <v>1674</v>
       </c>
       <c r="B1674">
-        <v>6.986256726713015</v>
+        <v>6.986256726713014</v>
       </c>
     </row>
     <row r="1675" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>12.44171549718623</v>
+        <v>12.44171549718622</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>9.171189241244944</v>
+        <v>9.171189241244942</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13999,7 +13999,7 @@
         <v>1707</v>
       </c>
       <c r="B1707">
-        <v>8.215777655208958</v>
+        <v>8.215777655208957</v>
       </c>
     </row>
     <row r="1708" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>36.00729395201021</v>
+        <v>36.0072939520102</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>14.19076345591714</v>
+        <v>14.19076345591713</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>5.4009475572822</v>
+        <v>5.400947557282199</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>10.31064943956026</v>
+        <v>10.31064943956025</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>26.0836155118984</v>
+        <v>26.08361551189839</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14647,7 +14647,7 @@
         <v>1788</v>
       </c>
       <c r="B1788">
-        <v>7.797301519104423</v>
+        <v>7.797301519104422</v>
       </c>
     </row>
     <row r="1789" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>0.9821689718657666</v>
+        <v>0.9821689718657663</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>13.71613490880509</v>
+        <v>13.71613490880508</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14959,7 +14959,7 @@
         <v>1827</v>
       </c>
       <c r="B1827">
-        <v>18.54870049370748</v>
+        <v>18.54870049370747</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>19.83015361025421</v>
+        <v>19.8301536102542</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -15095,7 +15095,7 @@
         <v>1844</v>
       </c>
       <c r="B1844">
-        <v>8.799311400287563</v>
+        <v>8.799311400287561</v>
       </c>
     </row>
     <row r="1845" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>6.157774207521259</v>
+        <v>6.157774207521258</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>7.002610090670319</v>
+        <v>7.002610090670318</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15511,7 +15511,7 @@
         <v>1896</v>
       </c>
       <c r="B1896">
-        <v>0.9484130496327527</v>
+        <v>0.9484130496327526</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>2.975257184489978</v>
+        <v>2.975257184489977</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>13.28807534973633</v>
+        <v>13.28807534973632</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>9.269983488377685</v>
+        <v>9.269983488377679</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -15983,7 +15983,7 @@
         <v>1955</v>
       </c>
       <c r="B1955">
-        <v>15.21035759941996</v>
+        <v>15.21035759941995</v>
       </c>
     </row>
     <row r="1956" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>8.686068750948818</v>
+        <v>8.686068750948817</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>8.668191417590476</v>
+        <v>8.668191417590474</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16423,7 +16423,7 @@
         <v>2010</v>
       </c>
       <c r="B2010">
-        <v>5.169333515428139</v>
+        <v>5.169333515428138</v>
       </c>
     </row>
     <row r="2011" spans="1:2">
@@ -16911,7 +16911,7 @@
         <v>2071</v>
       </c>
       <c r="B2071">
-        <v>19.97578060936503</v>
+        <v>19.97578060936502</v>
       </c>
     </row>
     <row r="2072" spans="1:2">
@@ -17055,7 +17055,7 @@
         <v>2089</v>
       </c>
       <c r="B2089">
-        <v>4.819142931331697</v>
+        <v>4.819142931331696</v>
       </c>
     </row>
     <row r="2090" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>8.259269397346301</v>
+        <v>8.2592693973463</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>15.07654136316719</v>
+        <v>15.07654136316718</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>5.592879780501516</v>
+        <v>5.592879780501515</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17287,7 +17287,7 @@
         <v>2118</v>
       </c>
       <c r="B2118">
-        <v>43.10019922969209</v>
+        <v>43.10019922969208</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
@@ -17799,7 +17799,7 @@
         <v>2182</v>
       </c>
       <c r="B2182">
-        <v>0.5077866044261934</v>
+        <v>0.5077866044261933</v>
       </c>
     </row>
     <row r="2183" spans="1:2">
@@ -17823,7 +17823,7 @@
         <v>2185</v>
       </c>
       <c r="B2185">
-        <v>7.630397562586786</v>
+        <v>7.630397562586785</v>
       </c>
     </row>
     <row r="2186" spans="1:2">
@@ -18039,7 +18039,7 @@
         <v>2212</v>
       </c>
       <c r="B2212">
-        <v>11.54131334510698</v>
+        <v>11.54131334510697</v>
       </c>
     </row>
     <row r="2213" spans="1:2">
@@ -18111,7 +18111,7 @@
         <v>2221</v>
       </c>
       <c r="B2221">
-        <v>6.880809767002663</v>
+        <v>6.880809767002662</v>
       </c>
     </row>
     <row r="2222" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>6.582961670411138</v>
+        <v>6.582961670411137</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>20.42646525261845</v>
+        <v>20.42646525261844</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>7.697569444647967</v>
+        <v>7.697569444647966</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>7.357841496631735</v>
+        <v>7.357841496631734</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>8.387282827033577</v>
+        <v>8.387282827033575</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>5.999603767955731</v>
+        <v>5.99960376795573</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>4.802379267920269</v>
+        <v>4.802379267920268</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>6.006373708948807</v>
+        <v>6.006373708948806</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19591,7 +19591,7 @@
         <v>2406</v>
       </c>
       <c r="B2406">
-        <v>26.38700265112062</v>
+        <v>26.38700265112061</v>
       </c>
     </row>
     <row r="2407" spans="1:2">
@@ -19615,7 +19615,7 @@
         <v>2409</v>
       </c>
       <c r="B2409">
-        <v>7.992105838502619</v>
+        <v>7.992105838502618</v>
       </c>
     </row>
     <row r="2410" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>5.895123942672961</v>
+        <v>5.89512394267296</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -19823,7 +19823,7 @@
         <v>2435</v>
       </c>
       <c r="B2435">
-        <v>5.247730018270049</v>
+        <v>5.247730018270048</v>
       </c>
     </row>
     <row r="2436" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>2.552519795483307</v>
+        <v>2.552519795483306</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>5.388579959450691</v>
+        <v>5.38857995945069</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>7.176840823154489</v>
+        <v>7.176840823154488</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>8.732520510576641</v>
+        <v>8.73252051057664</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>5.930907916493511</v>
+        <v>5.93090791649351</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>8.681526149849567</v>
+        <v>8.681526149849565</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>8.347776851022028</v>
+        <v>8.347776851022026</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>7.361094585160876</v>
+        <v>7.361094585160875</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -23207,7 +23207,7 @@
         <v>2858</v>
       </c>
       <c r="B2858">
-        <v>5.665766547816593</v>
+        <v>5.665766547816592</v>
       </c>
     </row>
     <row r="2859" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>7.977745357608213</v>
+        <v>7.977745357608212</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>0.6448354142353983</v>
+        <v>0.6448354142353981</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>1.222639620508174</v>
+        <v>1.222639620508173</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>4.522232662063889</v>
+        <v>4.522232662063888</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>9.023510744863492</v>
+        <v>9.02351074486349</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>6.481705626553644</v>
+        <v>6.481705626553643</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55879,7 +55879,7 @@
         <v>6942</v>
       </c>
       <c r="B6942">
-        <v>22.94324210422662</v>
+        <v>22.94324210422661</v>
       </c>
     </row>
     <row r="6943" spans="1:2">
@@ -56071,7 +56071,7 @@
         <v>6966</v>
       </c>
       <c r="B6966">
-        <v>7.269539192683072</v>
+        <v>7.269539192683071</v>
       </c>
     </row>
     <row r="6967" spans="1:2">
@@ -58551,7 +58551,7 @@
         <v>7276</v>
       </c>
       <c r="B7276">
-        <v>6.335639020884829</v>
+        <v>6.335639020884828</v>
       </c>
     </row>
     <row r="7277" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>17.57177749343375</v>
+        <v>17.57177749343374</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>7.374400010316101</v>
+        <v>7.3744000103161</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>5.681094163138581</v>
+        <v>5.68109416313858</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>2.575209355296468</v>
+        <v>2.575209355296467</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>3.475851825627422</v>
+        <v>3.475851825627421</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>10.39690024623829</v>
+        <v>10.39690024623828</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>7.417715909830248</v>
+        <v>7.417715909830247</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>4.267524622363314</v>
+        <v>4.267524622363313</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60631,7 +60631,7 @@
         <v>7536</v>
       </c>
       <c r="B7536">
-        <v>17.32589089199688</v>
+        <v>17.32589089199687</v>
       </c>
     </row>
     <row r="7537" spans="1:2">
@@ -61031,7 +61031,7 @@
         <v>7586</v>
       </c>
       <c r="B7586">
-        <v>23.73922304523083</v>
+        <v>23.73922304523082</v>
       </c>
     </row>
     <row r="7587" spans="1:2">
@@ -61103,7 +61103,7 @@
         <v>7595</v>
       </c>
       <c r="B7595">
-        <v>20.91615765111769</v>
+        <v>20.91615765111768</v>
       </c>
     </row>
     <row r="7596" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>6.93458830259702</v>
+        <v>6.934588302597019</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>12.48169038685964</v>
+        <v>12.48169038685963</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>7.778281208695301</v>
+        <v>7.7782812086953</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>3.015554452305913</v>
+        <v>3.015554452305912</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>4.961018621147655</v>
+        <v>4.961018621147654</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>40.2137425699165</v>
+        <v>40.21374256991649</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61727,7 +61727,7 @@
         <v>7673</v>
       </c>
       <c r="B7673">
-        <v>7.256233767527847</v>
+        <v>7.256233767527846</v>
       </c>
     </row>
     <row r="7674" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>7.59033475160178</v>
+        <v>7.590334751601779</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>15.86944505826546</v>
+        <v>15.86944505826545</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -61879,7 +61879,7 @@
         <v>7692</v>
       </c>
       <c r="B7692">
-        <v>7.923878900702258</v>
+        <v>7.923878900702257</v>
       </c>
     </row>
     <row r="7693" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>8.809480965329112</v>
+        <v>8.80948096532911</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>8.238900960159338</v>
+        <v>8.238900960159336</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>7.032122344263516</v>
+        <v>7.032122344263515</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62639,7 +62639,7 @@
         <v>7787</v>
       </c>
       <c r="B7787">
-        <v>10.09295627204261</v>
+        <v>10.0929562720426</v>
       </c>
     </row>
     <row r="7788" spans="1:2">
@@ -63551,7 +63551,7 @@
         <v>7901</v>
       </c>
       <c r="B7901">
-        <v>0.7397288858435552</v>
+        <v>0.7397288858435551</v>
       </c>
     </row>
     <row r="7902" spans="1:2">
@@ -63575,7 +63575,7 @@
         <v>7904</v>
       </c>
       <c r="B7904">
-        <v>22.24957226281908</v>
+        <v>22.24957226281907</v>
       </c>
     </row>
     <row r="7905" spans="1:2">
@@ -63727,7 +63727,7 @@
         <v>7923</v>
       </c>
       <c r="B7923">
-        <v>2.569520846436052</v>
+        <v>2.569520846436051</v>
       </c>
     </row>
     <row r="7924" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>6.948831555075962</v>
+        <v>6.948831555075961</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63959,7 +63959,7 @@
         <v>7952</v>
       </c>
       <c r="B7952">
-        <v>4.664313501606909</v>
+        <v>4.664313501606908</v>
       </c>
     </row>
     <row r="7953" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>6.279750373812111</v>
+        <v>6.27975037381211</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64495,7 +64495,7 @@
         <v>8019</v>
       </c>
       <c r="B8019">
-        <v>7.31095013044592</v>
+        <v>7.310950130445919</v>
       </c>
     </row>
     <row r="8020" spans="1:2">
@@ -64655,7 +64655,7 @@
         <v>8039</v>
       </c>
       <c r="B8039">
-        <v>14.48371726616302</v>
+        <v>14.48371726616301</v>
       </c>
     </row>
     <row r="8040" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>21.84510492236256</v>
+        <v>21.84510492236255</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64783,7 +64783,7 @@
         <v>8055</v>
       </c>
       <c r="B8055">
-        <v>4.480821724301041</v>
+        <v>4.48082172430104</v>
       </c>
     </row>
     <row r="8056" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>11.5915750282374</v>
+        <v>11.59157502823739</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>16.29932165777392</v>
+        <v>16.29932165777391</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>3.485083563345254</v>
+        <v>3.485083563345253</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65151,7 +65151,7 @@
         <v>8101</v>
       </c>
       <c r="B8101">
-        <v>8.293529401765813</v>
+        <v>8.293529401765811</v>
       </c>
     </row>
     <row r="8102" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>0.8696970993587021</v>
+        <v>0.869697099358702</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65239,7 +65239,7 @@
         <v>8112</v>
       </c>
       <c r="B8112">
-        <v>3.082316034912967</v>
+        <v>3.082316034912966</v>
       </c>
     </row>
     <row r="8113" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>5.457861952990234</v>
+        <v>5.457861952990233</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>32.23664196859334</v>
+        <v>32.23664196859333</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65591,7 +65591,7 @@
         <v>8156</v>
       </c>
       <c r="B8156">
-        <v>4.528035468629383</v>
+        <v>4.528035468629382</v>
       </c>
     </row>
     <row r="8157" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>21.61161522586106</v>
+        <v>21.61161522586105</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -65895,7 +65895,7 @@
         <v>8194</v>
       </c>
       <c r="B8194">
-        <v>24.90394596707875</v>
+        <v>24.90394596707874</v>
       </c>
     </row>
     <row r="8195" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>21.23915124282636</v>
+        <v>21.23915124282635</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66103,7 +66103,7 @@
         <v>8220</v>
       </c>
       <c r="B8220">
-        <v>18.8227512219597</v>
+        <v>18.82275122195969</v>
       </c>
     </row>
     <row r="8221" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>36.98556507906178</v>
+        <v>36.98556507906177</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66311,7 +66311,7 @@
         <v>8246</v>
       </c>
       <c r="B8246">
-        <v>11.66079840756921</v>
+        <v>11.6607984075692</v>
       </c>
     </row>
     <row r="8247" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>8.960529778655168</v>
+        <v>8.960529778655166</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -66695,7 +66695,7 @@
         <v>8294</v>
       </c>
       <c r="B8294">
-        <v>15.5845213944789</v>
+        <v>15.58452139447889</v>
       </c>
     </row>
     <row r="8295" spans="1:2">
@@ -66719,7 +66719,7 @@
         <v>8297</v>
       </c>
       <c r="B8297">
-        <v>19.21845573836025</v>
+        <v>19.21845573836024</v>
       </c>
     </row>
     <row r="8298" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>16.11984495369771</v>
+        <v>16.1198449536977</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>20.80121518975471</v>
+        <v>20.8012151897547</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>22.34830789574409</v>
+        <v>22.34830789574408</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67271,7 +67271,7 @@
         <v>8366</v>
       </c>
       <c r="B8366">
-        <v>6.96454016274821</v>
+        <v>6.964540162748209</v>
       </c>
     </row>
     <row r="8367" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>8.566261310344061</v>
+        <v>8.566261310344059</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67407,7 +67407,7 @@
         <v>8383</v>
       </c>
       <c r="B8383">
-        <v>20.82650722039119</v>
+        <v>20.82650722039118</v>
       </c>
     </row>
     <row r="8384" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>21.53228089569544</v>
+        <v>21.53228089569543</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>7.155651787059273</v>
+        <v>7.155651787059272</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67727,7 +67727,7 @@
         <v>8423</v>
       </c>
       <c r="B8423">
-        <v>8.377552868550021</v>
+        <v>8.377552868550019</v>
       </c>
     </row>
     <row r="8424" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>27.05370995697132</v>
+        <v>27.05370995697131</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>4.813047053727542</v>
+        <v>4.813047053727541</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -67919,7 +67919,7 @@
         <v>8447</v>
       </c>
       <c r="B8447">
-        <v>5.106235320804352</v>
+        <v>5.106235320804351</v>
       </c>
     </row>
     <row r="8448" spans="1:2">
@@ -68191,7 +68191,7 @@
         <v>8481</v>
       </c>
       <c r="B8481">
-        <v>22.59044318788609</v>
+        <v>22.59044318788608</v>
       </c>
     </row>
     <row r="8482" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>3.355135864802814</v>
+        <v>3.355135864802813</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>16.34627163816747</v>
+        <v>16.34627163816746</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>20.82290244661565</v>
+        <v>20.82290244661564</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>7.979181405697653</v>
+        <v>7.979181405697652</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>24.3631126723331</v>
+        <v>24.36311267233309</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>24.72962731328298</v>
+        <v>24.72962731328297</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>19.79003218506147</v>
+        <v>19.79003218506146</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68735,7 +68735,7 @@
         <v>8549</v>
       </c>
       <c r="B8549">
-        <v>27.39595831592003</v>
+        <v>27.39595831592002</v>
       </c>
     </row>
     <row r="8550" spans="1:2">
@@ -68959,7 +68959,7 @@
         <v>8577</v>
       </c>
       <c r="B8577">
-        <v>33.52849910701255</v>
+        <v>33.52849910701254</v>
       </c>
     </row>
     <row r="8578" spans="1:2">
@@ -69279,7 +69279,7 @@
         <v>8617</v>
       </c>
       <c r="B8617">
-        <v>55.96074254822924</v>
+        <v>55.96074254822923</v>
       </c>
     </row>
     <row r="8618" spans="1:2">
@@ -69335,7 +69335,7 @@
         <v>8624</v>
       </c>
       <c r="B8624">
-        <v>43.14357374341397</v>
+        <v>43.14357374341396</v>
       </c>
     </row>
     <row r="8625" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>16.22010455602376</v>
+        <v>16.22010455602375</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>8.343292864130509</v>
+        <v>8.343292864130508</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69743,7 +69743,7 @@
         <v>8675</v>
       </c>
       <c r="B8675">
-        <v>16.08400236566943</v>
+        <v>16.08400236566942</v>
       </c>
     </row>
     <row r="8676" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>4.903723233089362</v>
+        <v>4.903723233089361</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69871,7 +69871,7 @@
         <v>8691</v>
       </c>
       <c r="B8691">
-        <v>9.84970730995369</v>
+        <v>9.849707309953688</v>
       </c>
     </row>
     <row r="8692" spans="1:2">
@@ -69951,7 +69951,7 @@
         <v>8701</v>
       </c>
       <c r="B8701">
-        <v>5.677577310674645</v>
+        <v>5.677577310674644</v>
       </c>
     </row>
     <row r="8702" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>7.01298480543893</v>
+        <v>7.012984805438929</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>9.354006955161893</v>
+        <v>9.354006955161889</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>2.923867177860711</v>
+        <v>2.92386717786071</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>4.127964193752781</v>
+        <v>4.12796419375278</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70399,7 +70399,7 @@
         <v>8757</v>
       </c>
       <c r="B8757">
-        <v>0.6522120122785043</v>
+        <v>0.6522120122785042</v>
       </c>
     </row>
     <row r="8758" spans="1:2">
